--- a/UDMI-CREATION/DELTA/VFD/vfd.xlsx
+++ b/UDMI-CREATION/DELTA/VFD/vfd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2073FF-E8B2-426A-A686-924C6763B3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA341F-7AD5-40A1-BD7A-BDFD673974B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -687,9 +687,6 @@
     <t>AV111006.Present_Value</t>
   </si>
   <si>
-    <t>AV1130086.Present_Value</t>
-  </si>
-  <si>
     <t>AV113005.Present_Value</t>
   </si>
   <si>
@@ -1060,6 +1057,9 @@
   </si>
   <si>
     <t>43c75bff-bfdd-02f5-7012-401d9cd1c3f7</t>
+  </si>
+  <si>
+    <t>AV113006.Present_Value</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
         <v>62</v>
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J3" t="s">
         <v>62</v>
@@ -1879,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -2725,9 +2725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H837"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3087,7 +3087,7 @@
         <v>91</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="3"/>
@@ -3104,7 +3104,7 @@
         <v>92</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3121,7 +3121,7 @@
         <v>93</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3138,7 +3138,7 @@
         <v>94</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="3"/>
@@ -3155,7 +3155,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3172,7 +3172,7 @@
         <v>96</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3189,7 +3189,7 @@
         <v>91</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="3"/>
@@ -3206,7 +3206,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3223,7 +3223,7 @@
         <v>93</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3240,7 +3240,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3257,7 +3257,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3274,7 +3274,7 @@
         <v>96</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3291,7 +3291,7 @@
         <v>91</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3308,7 +3308,7 @@
         <v>92</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3325,7 +3325,7 @@
         <v>93</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3342,7 +3342,7 @@
         <v>94</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3356,7 +3356,7 @@
         <v>95</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3370,7 +3370,7 @@
         <v>96</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3384,7 +3384,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3398,7 +3398,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" s="6"/>
     </row>
@@ -3413,7 +3413,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3427,7 +3427,7 @@
         <v>94</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3455,7 +3455,7 @@
         <v>96</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,7 @@
         <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E44" s="9"/>
     </row>
@@ -3484,7 +3484,7 @@
         <v>92</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3498,7 +3498,7 @@
         <v>93</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3512,7 +3512,7 @@
         <v>94</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3526,7 +3526,7 @@
         <v>95</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3540,7 +3540,7 @@
         <v>96</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3568,7 +3568,7 @@
         <v>92</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>93</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
         <v>94</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
         <v>95</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3624,7 +3624,7 @@
         <v>96</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E56" s="9"/>
     </row>
@@ -3681,7 +3681,7 @@
         <v>94</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>95</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
         <v>91</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3765,7 +3765,7 @@
         <v>94</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>95</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3793,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>91</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E68" s="9"/>
     </row>
@@ -3850,7 +3850,7 @@
         <v>94</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
         <v>95</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>96</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>91</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3906,7 +3906,7 @@
         <v>92</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
         <v>93</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
         <v>94</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3948,7 +3948,7 @@
         <v>95</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,7 +3962,7 @@
         <v>96</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>91</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3990,7 +3990,7 @@
         <v>92</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4004,7 +4004,7 @@
         <v>93</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4018,7 +4018,7 @@
         <v>94</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4032,7 +4032,7 @@
         <v>95</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>96</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
         <v>91</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4074,7 +4074,7 @@
         <v>92</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4088,7 +4088,7 @@
         <v>93</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>94</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
         <v>95</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
         <v>96</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4144,7 +4144,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4158,7 +4158,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4172,7 +4172,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4186,7 +4186,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>91</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4242,7 +4242,7 @@
         <v>92</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4256,7 +4256,7 @@
         <v>93</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>94</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>95</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4298,7 +4298,7 @@
         <v>96</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4312,7 +4312,7 @@
         <v>91</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
         <v>92</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>93</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4354,7 +4354,7 @@
         <v>94</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4368,7 +4368,7 @@
         <v>95</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E108" s="9"/>
     </row>
@@ -4383,7 +4383,7 @@
         <v>96</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4391,13 +4391,13 @@
         <v>90</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E110" s="9"/>
     </row>
@@ -4406,7 +4406,7 @@
         <v>90</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>92</v>
@@ -4421,13 +4421,13 @@
         <v>90</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E112" s="9"/>
     </row>
@@ -4436,13 +4436,13 @@
         <v>90</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E113" s="9"/>
     </row>
@@ -4451,13 +4451,13 @@
         <v>90</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E114" s="9"/>
     </row>
@@ -4466,13 +4466,13 @@
         <v>90</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E115" s="9"/>
     </row>
@@ -4481,13 +4481,13 @@
         <v>90</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>90</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>92</v>
@@ -4509,13 +4509,13 @@
         <v>90</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>93</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4523,13 +4523,13 @@
         <v>90</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4537,13 +4537,13 @@
         <v>90</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4551,13 +4551,13 @@
         <v>90</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4565,13 +4565,13 @@
         <v>90</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4579,7 +4579,7 @@
         <v>90</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>92</v>
@@ -4593,7 +4593,7 @@
         <v>90</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>93</v>
@@ -4607,13 +4607,13 @@
         <v>90</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4621,13 +4621,13 @@
         <v>90</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4635,13 +4635,13 @@
         <v>90</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4649,13 +4649,13 @@
         <v>90</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>90</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>92</v>
@@ -4677,7 +4677,7 @@
         <v>90</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>93</v>
@@ -4691,13 +4691,13 @@
         <v>90</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,13 +4705,13 @@
         <v>90</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4719,13 +4719,13 @@
         <v>90</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7600,7 +7600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/UDMI-CREATION/DELTA/VFD/vfd.xlsx
+++ b/UDMI-CREATION/DELTA/VFD/vfd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA341F-7AD5-40A1-BD7A-BDFD673974B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401DF18-8B88-464F-9ACB-813FC82E54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="380">
   <si>
     <t>dbo.section</t>
   </si>
@@ -1060,6 +1060,120 @@
   </si>
   <si>
     <t>AV113006.Present_Value</t>
+  </si>
+  <si>
+    <t>HLI-69</t>
+  </si>
+  <si>
+    <t>kfaf_02_voltage_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_02_current_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_02_speed_frequency_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_02_power_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_02_energy_accumulator</t>
+  </si>
+  <si>
+    <t>kfaf_02_run_time_accumulator</t>
+  </si>
+  <si>
+    <t>kfaf_01_voltage_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_01_current_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_01_speed_frequency_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_01_power_sensor</t>
+  </si>
+  <si>
+    <t>kfaf_01_energy_accumulator</t>
+  </si>
+  <si>
+    <t>kfaf_01_run_time_accumulator</t>
+  </si>
+  <si>
+    <t>AV101001.Present_Value</t>
+  </si>
+  <si>
+    <t>AV101002.Present_Value</t>
+  </si>
+  <si>
+    <t>AV101004.Present_Value</t>
+  </si>
+  <si>
+    <t>AV101005.Present_Value</t>
+  </si>
+  <si>
+    <t>AV101006.Present_Value</t>
+  </si>
+  <si>
+    <t>AV101008.Present_Value</t>
+  </si>
+  <si>
+    <t>AV102001.Present_Value</t>
+  </si>
+  <si>
+    <t>AV102002.Present_Value</t>
+  </si>
+  <si>
+    <t>AV102004.Present_Value</t>
+  </si>
+  <si>
+    <t>AV102005.Present_Value</t>
+  </si>
+  <si>
+    <t>AV102006.Present_Value</t>
+  </si>
+  <si>
+    <t>AV102008.Present_Value</t>
+  </si>
+  <si>
+    <t>HLI-71</t>
+  </si>
+  <si>
+    <t>cahu_01_voltage_sensor</t>
+  </si>
+  <si>
+    <t>cahu_01_current_sensor</t>
+  </si>
+  <si>
+    <t>cahu_01_speed_frequency_sensor</t>
+  </si>
+  <si>
+    <t>cahu_01_power_sensor</t>
+  </si>
+  <si>
+    <t>cahu_01_energy_accumulator</t>
+  </si>
+  <si>
+    <t>cahu_01_run_time_accumulator</t>
+  </si>
+  <si>
+    <t>cahu_02_voltage_sensor</t>
+  </si>
+  <si>
+    <t>cahu_02_current_sensor</t>
+  </si>
+  <si>
+    <t>cahu_02_speed_frequency_sensor</t>
+  </si>
+  <si>
+    <t>cahu_02_power_sensor</t>
+  </si>
+  <si>
+    <t>cahu_02_energy_accumulator</t>
+  </si>
+  <si>
+    <t>cahu_02_run_time_accumulator</t>
   </si>
 </sst>
 </file>
@@ -2726,8 +2840,8 @@
   <dimension ref="A1:H837"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4729,125 +4843,340 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
-      <c r="B134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="A134" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
-      <c r="B135" s="4"/>
+      <c r="A135" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
-      <c r="B136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="A136" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
-      <c r="B137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="A137" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
-      <c r="B138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="A138" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="A139" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
-      <c r="B140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="A140" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
-      <c r="B141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="A141" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
-      <c r="B142" s="4"/>
+      <c r="A142" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
-      <c r="B143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="A143" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
-      <c r="B144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="A144" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="A145" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="A146" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="A147" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
-      <c r="B148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="A148" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
-      <c r="B149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="A149" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
-      <c r="B150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="A150" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
-      <c r="B151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="A151" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
-      <c r="B152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="A152" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
-      <c r="B153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="A153" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
-      <c r="B154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="A154" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="A155" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
-      <c r="B156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="A156" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
-      <c r="B157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="A157" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>

--- a/UDMI-CREATION/DELTA/VFD/vfd.xlsx
+++ b/UDMI-CREATION/DELTA/VFD/vfd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\VFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B401DF18-8B88-464F-9ACB-813FC82E54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E96E4-9D36-46C6-8964-F091534FBCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="382">
   <si>
     <t>dbo.section</t>
   </si>
@@ -1174,6 +1174,12 @@
   </si>
   <si>
     <t>cahu_02_run_time_accumulator</t>
+  </si>
+  <si>
+    <t>ea76c4d1-63fc-c257-1086-002acd7ba545</t>
+  </si>
+  <si>
+    <t>06ebeca1-6bd2-b7f9-41a6-88836c409f2b</t>
   </si>
 </sst>
 </file>
@@ -1774,10 +1780,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2012,14 +2018,92 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>380</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
@@ -2840,8 +2924,8 @@
   <dimension ref="A1:H837"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7930,7 +8014,7 @@
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7980,13 +8064,21 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
